--- a/teaching/traditional_assets/database/data/mongolia/mongolia_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/mongolia/mongolia_metals_mining.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="K2">
-        <v>-3.01</v>
+        <v>-10.53</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,73 +615,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.76</v>
+        <v>4.459</v>
       </c>
       <c r="V2">
-        <v>0.1073170731707317</v>
+        <v>0.1202210838500943</v>
       </c>
       <c r="W2">
-        <v>-0.08551136363636362</v>
+        <v>-0.6977211815356541</v>
       </c>
       <c r="X2">
-        <v>0.1462760638159494</v>
+        <v>0.1043418470071959</v>
       </c>
       <c r="Y2">
-        <v>-0.231787427452313</v>
+        <v>-0.8020630285428501</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>-0.1080257365391128</v>
+        <v>-0.5803107223600318</v>
       </c>
       <c r="AB2">
-        <v>0.1462760638159494</v>
+        <v>0.10267079702392</v>
       </c>
       <c r="AC2">
-        <v>-0.2543018003550622</v>
+        <v>-0.6829815193839519</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.654</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.654</v>
       </c>
       <c r="AG2">
-        <v>-1.76</v>
+        <v>-3.805</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.01732725731242052</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.01884726224783861</v>
       </c>
       <c r="AJ2">
-        <v>-0.1202185792349727</v>
+        <v>-0.1143157578488809</v>
       </c>
       <c r="AK2">
-        <v>-0.05185621685327047</v>
+        <v>-0.1258225587778182</v>
       </c>
       <c r="AL2">
-        <v>0.018</v>
+        <v>0.109</v>
       </c>
       <c r="AM2">
-        <v>0.011</v>
+        <v>0.109</v>
       </c>
       <c r="AN2">
-        <v>-0</v>
+        <v>1.006153846153846</v>
       </c>
       <c r="AO2">
-        <v>-177.2222222222222</v>
+        <v>-93.85321100917432</v>
       </c>
       <c r="AP2">
-        <v>0.5587301587301587</v>
+        <v>-5.85384615384615</v>
       </c>
       <c r="AQ2">
-        <v>-290</v>
+        <v>-93.85321100917432</v>
       </c>
     </row>
     <row r="3">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="K3">
-        <v>-3.01</v>
+        <v>-5.18</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -725,73 +725,183 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.76</v>
+        <v>3.94</v>
       </c>
       <c r="V3">
-        <v>0.1073170731707317</v>
+        <v>0.123125</v>
       </c>
       <c r="W3">
-        <v>-0.08551136363636362</v>
+        <v>-0.1598765432098765</v>
       </c>
       <c r="X3">
-        <v>0.1462760638159494</v>
+        <v>0.1009231092645841</v>
       </c>
       <c r="Y3">
-        <v>-0.231787427452313</v>
+        <v>-0.2607996524744606</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>-0.1080257365391128</v>
+        <v>-0.1800247411940882</v>
       </c>
       <c r="AB3">
-        <v>0.1462760638159494</v>
+        <v>0.1007722604069783</v>
       </c>
       <c r="AC3">
-        <v>-0.2543018003550622</v>
+        <v>-0.2807970016010665</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.126</v>
       </c>
       <c r="AG3">
-        <v>-1.76</v>
+        <v>-3.814</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.0039220569009525</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.003607627555402852</v>
       </c>
       <c r="AJ3">
-        <v>-0.1202185792349727</v>
+        <v>-0.135315404810899</v>
       </c>
       <c r="AK3">
-        <v>-0.05185621685327047</v>
+        <v>-0.123087846124056</v>
       </c>
       <c r="AL3">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="AM3">
-        <v>0.011</v>
+        <v>0.019</v>
       </c>
       <c r="AN3">
+        <v>-0.05431034482758621</v>
+      </c>
+      <c r="AO3">
+        <v>-291.0526315789474</v>
+      </c>
+      <c r="AP3">
+        <v>1.643965517241379</v>
+      </c>
+      <c r="AQ3">
+        <v>-291.0526315789474</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Mongolia</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aranjin Resources Ltd. (TSXV:ARJN)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Metals &amp; Mining</t>
+        </is>
+      </c>
+      <c r="K4">
+        <v>-5.35</v>
+      </c>
+      <c r="M4">
         <v>-0</v>
       </c>
-      <c r="AO3">
-        <v>-177.2222222222222</v>
-      </c>
-      <c r="AP3">
-        <v>0.5587301587301587</v>
-      </c>
-      <c r="AQ3">
-        <v>-290</v>
+      <c r="N4">
+        <v>-0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>-0</v>
+      </c>
+      <c r="Q4">
+        <v>-0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0.519</v>
+      </c>
+      <c r="V4">
+        <v>0.1019646365422397</v>
+      </c>
+      <c r="W4">
+        <v>-1.235565819861432</v>
+      </c>
+      <c r="X4">
+        <v>0.1077605847498077</v>
+      </c>
+      <c r="Y4">
+        <v>-1.343326404611239</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>-0.9805967035259754</v>
+      </c>
+      <c r="AB4">
+        <v>0.1045693336408618</v>
+      </c>
+      <c r="AC4">
+        <v>-1.085166037166837</v>
+      </c>
+      <c r="AD4">
+        <v>0.528</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0.528</v>
+      </c>
+      <c r="AG4">
+        <v>0.009000000000000008</v>
+      </c>
+      <c r="AH4">
+        <v>0.09398362406550374</v>
+      </c>
+      <c r="AI4">
+        <v>-2.336283185840708</v>
+      </c>
+      <c r="AJ4">
+        <v>0.001765051970974702</v>
+      </c>
+      <c r="AK4">
+        <v>-0.01208053691275169</v>
+      </c>
+      <c r="AL4">
+        <v>0.09</v>
+      </c>
+      <c r="AM4">
+        <v>0.09</v>
+      </c>
+      <c r="AN4">
+        <v>0.1777777777777778</v>
+      </c>
+      <c r="AO4">
+        <v>-52.22222222222223</v>
+      </c>
+      <c r="AP4">
+        <v>0.003030303030303033</v>
+      </c>
+      <c r="AQ4">
+        <v>-52.22222222222223</v>
       </c>
     </row>
   </sheetData>
